--- a/Data/Processed/Angiosperms/missing_powo_ipni/Heliconiaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Heliconiaceae.xlsx
@@ -1202,7 +1202,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6339,7 +6339,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -6349,7 +6349,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Bot. (Oxford) 7(2): 197. 1893 [Jun 1893] </t>
+          <t>Ann. Bot. (Oxford) 7(2): 197. 1893 [Jun 1893]</t>
         </is>
       </c>
       <c r="J103" t="b">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Itin. Princ. S. Coburgi 2: 88, pl. 5. 1888 </t>
+          <t>Itin. Princ. S. Coburgi 2: 88, pl. 5. 1888</t>
         </is>
       </c>
       <c r="J104" t="b">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Nac. Rio de Janeiro, Bot. n.s., 122: 3 (1-7; figs. 1-3). 2003 [23 Jan 2003] </t>
+          <t>Bol. Mus. Nac. Rio de Janeiro, Bot. n.s., 122: 3 (1-7; figs. 1-3). 2003 [23 Jan 2003]</t>
         </is>
       </c>
       <c r="J105" t="b">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Nac. Rio de Janeiro n.s., Bot. no. 60: 2, figs. 1981 </t>
+          <t>Bol. Mus. Nac. Rio de Janeiro n.s., Bot. no. 60: 2, figs. 1981</t>
         </is>
       </c>
       <c r="J106" t="b">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bol. Mus. Nac. Rio de Janeiro n.s., Bot. no. 60: 4 (-5), fig. 1981 </t>
+          <t>Bol. Mus. Nac. Rio de Janeiro n.s., Bot. no. 60: 4 (-5), fig. 1981</t>
         </is>
       </c>
       <c r="J107" t="b">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rodriguésia no. 41: 132. 1976 </t>
+          <t>Rodriguésia no. 41: 132. 1976</t>
         </is>
       </c>
       <c r="J108" t="b">
